--- a/data/trans_bre/P42C_R-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P42C_R-Provincia-trans_bre.xlsx
@@ -557,7 +557,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -572,7 +572,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
